--- a/natmiOut/OldD0/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.1504655125689</v>
+        <v>63.211268</v>
       </c>
       <c r="H2">
-        <v>57.1504655125689</v>
+        <v>189.633804</v>
       </c>
       <c r="I2">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="J2">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.47957623264481</v>
+        <v>0.128483</v>
       </c>
       <c r="N2">
-        <v>4.47957623264481</v>
+        <v>0.385449</v>
       </c>
       <c r="O2">
-        <v>0.5699147196687956</v>
+        <v>0.01580103135560779</v>
       </c>
       <c r="P2">
-        <v>0.5699147196687956</v>
+        <v>0.01580103135560779</v>
       </c>
       <c r="Q2">
-        <v>256.0098669946905</v>
+        <v>8.121573346443999</v>
       </c>
       <c r="R2">
-        <v>256.0098669946905</v>
+        <v>73.094160117996</v>
       </c>
       <c r="S2">
-        <v>0.2670770525056907</v>
+        <v>0.007778231315470255</v>
       </c>
       <c r="T2">
-        <v>0.2670770525056907</v>
+        <v>0.007778231315470255</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.1504655125689</v>
+        <v>63.211268</v>
       </c>
       <c r="H3">
-        <v>57.1504655125689</v>
+        <v>189.633804</v>
       </c>
       <c r="I3">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="J3">
-        <v>0.4686263458169703</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.38050542176149</v>
+        <v>4.550946666666667</v>
       </c>
       <c r="N3">
-        <v>3.38050542176149</v>
+        <v>13.65284</v>
       </c>
       <c r="O3">
-        <v>0.4300852803312044</v>
+        <v>0.5596822223772701</v>
       </c>
       <c r="P3">
-        <v>0.4300852803312044</v>
+        <v>0.5596822223772699</v>
       </c>
       <c r="Q3">
-        <v>193.1974585214322</v>
+        <v>287.6711094003734</v>
       </c>
       <c r="R3">
-        <v>193.1974585214322</v>
+        <v>2589.03998460336</v>
       </c>
       <c r="S3">
-        <v>0.2015492933112796</v>
+        <v>0.2755097240701233</v>
       </c>
       <c r="T3">
-        <v>0.2015492933112796</v>
+        <v>0.2755097240701233</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.0001042650496</v>
+        <v>63.211268</v>
       </c>
       <c r="H4">
-        <v>43.0001042650496</v>
+        <v>189.633804</v>
       </c>
       <c r="I4">
-        <v>0.3525952334902185</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="J4">
-        <v>0.3525952334902185</v>
+        <v>0.4922609885657722</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.47957623264481</v>
+        <v>3.451875</v>
       </c>
       <c r="N4">
-        <v>4.47957623264481</v>
+        <v>10.355625</v>
       </c>
       <c r="O4">
-        <v>0.5699147196687956</v>
+        <v>0.4245167462671222</v>
       </c>
       <c r="P4">
-        <v>0.5699147196687956</v>
+        <v>0.4245167462671222</v>
       </c>
       <c r="Q4">
-        <v>192.6222450669649</v>
+        <v>218.1973957275</v>
       </c>
       <c r="R4">
-        <v>192.6222450669649</v>
+        <v>1963.7765615475</v>
       </c>
       <c r="S4">
-        <v>0.2009492136511314</v>
+        <v>0.2089730331801786</v>
       </c>
       <c r="T4">
-        <v>0.2009492136511314</v>
+        <v>0.2089730331801786</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.0001042650496</v>
+        <v>43.30706799999999</v>
       </c>
       <c r="H5">
-        <v>43.0001042650496</v>
+        <v>129.921204</v>
       </c>
       <c r="I5">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="J5">
-        <v>0.3525952334902185</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.38050542176149</v>
+        <v>0.128483</v>
       </c>
       <c r="N5">
-        <v>3.38050542176149</v>
+        <v>0.385449</v>
       </c>
       <c r="O5">
-        <v>0.4300852803312044</v>
+        <v>0.01580103135560779</v>
       </c>
       <c r="P5">
-        <v>0.4300852803312044</v>
+        <v>0.01580103135560779</v>
       </c>
       <c r="Q5">
-        <v>145.3620856043096</v>
+        <v>5.564222017843998</v>
       </c>
       <c r="R5">
-        <v>145.3620856043096</v>
+        <v>50.077998160596</v>
       </c>
       <c r="S5">
-        <v>0.1516460198390871</v>
+        <v>0.005328992807086226</v>
       </c>
       <c r="T5">
-        <v>0.1516460198390871</v>
+        <v>0.005328992807086226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.8025940227154</v>
+        <v>43.30706799999999</v>
       </c>
       <c r="H6">
-        <v>21.8025940227154</v>
+        <v>129.921204</v>
       </c>
       <c r="I6">
-        <v>0.1787784206928111</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="J6">
-        <v>0.1787784206928111</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.47957623264481</v>
+        <v>4.550946666666667</v>
       </c>
       <c r="N6">
-        <v>4.47957623264481</v>
+        <v>13.65284</v>
       </c>
       <c r="O6">
-        <v>0.5699147196687956</v>
+        <v>0.5596822223772701</v>
       </c>
       <c r="P6">
-        <v>0.5699147196687956</v>
+        <v>0.5596822223772699</v>
       </c>
       <c r="Q6">
-        <v>97.66638199415971</v>
+        <v>197.0881567577067</v>
       </c>
       <c r="R6">
-        <v>97.66638199415971</v>
+        <v>1773.79341081936</v>
       </c>
       <c r="S6">
-        <v>0.1018884535119735</v>
+        <v>0.1887561938318666</v>
       </c>
       <c r="T6">
-        <v>0.1018884535119735</v>
+        <v>0.1887561938318665</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.8025940227154</v>
+        <v>43.30706799999999</v>
       </c>
       <c r="H7">
-        <v>21.8025940227154</v>
+        <v>129.921204</v>
       </c>
       <c r="I7">
-        <v>0.1787784206928111</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="J7">
-        <v>0.1787784206928111</v>
+        <v>0.3372560111523963</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.38050542176149</v>
+        <v>3.451875</v>
       </c>
       <c r="N7">
-        <v>3.38050542176149</v>
+        <v>10.355625</v>
       </c>
       <c r="O7">
-        <v>0.4300852803312044</v>
+        <v>0.4245167462671222</v>
       </c>
       <c r="P7">
-        <v>0.4300852803312044</v>
+        <v>0.4245167462671222</v>
       </c>
       <c r="Q7">
-        <v>73.70378730225407</v>
+        <v>149.4905853525</v>
       </c>
       <c r="R7">
-        <v>73.70378730225407</v>
+        <v>1345.4152681725</v>
       </c>
       <c r="S7">
-        <v>0.07688996718083767</v>
+        <v>0.1431708245134436</v>
       </c>
       <c r="T7">
-        <v>0.07688996718083767</v>
+        <v>0.1431708245134436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>21.891734</v>
+      </c>
+      <c r="H8">
+        <v>65.675202</v>
+      </c>
+      <c r="I8">
+        <v>0.1704830002818315</v>
+      </c>
+      <c r="J8">
+        <v>0.1704830002818315</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.128483</v>
+      </c>
+      <c r="N8">
+        <v>0.385449</v>
+      </c>
+      <c r="O8">
+        <v>0.01580103135560779</v>
+      </c>
+      <c r="P8">
+        <v>0.01580103135560779</v>
+      </c>
+      <c r="Q8">
+        <v>2.812715659522</v>
+      </c>
+      <c r="R8">
+        <v>25.314440935698</v>
+      </c>
+      <c r="S8">
+        <v>0.002693807233051312</v>
+      </c>
+      <c r="T8">
+        <v>0.002693807233051311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>21.891734</v>
+      </c>
+      <c r="H9">
+        <v>65.675202</v>
+      </c>
+      <c r="I9">
+        <v>0.1704830002818315</v>
+      </c>
+      <c r="J9">
+        <v>0.1704830002818315</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.550946666666667</v>
+      </c>
+      <c r="N9">
+        <v>13.65284</v>
+      </c>
+      <c r="O9">
+        <v>0.5596822223772701</v>
+      </c>
+      <c r="P9">
+        <v>0.5596822223772699</v>
+      </c>
+      <c r="Q9">
+        <v>99.62811387485334</v>
+      </c>
+      <c r="R9">
+        <v>896.65302487368</v>
+      </c>
+      <c r="S9">
+        <v>0.09541630447528021</v>
+      </c>
+      <c r="T9">
+        <v>0.09541630447528017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>21.891734</v>
+      </c>
+      <c r="H10">
+        <v>65.675202</v>
+      </c>
+      <c r="I10">
+        <v>0.1704830002818315</v>
+      </c>
+      <c r="J10">
+        <v>0.1704830002818315</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.451875</v>
+      </c>
+      <c r="N10">
+        <v>10.355625</v>
+      </c>
+      <c r="O10">
+        <v>0.4245167462671222</v>
+      </c>
+      <c r="P10">
+        <v>0.4245167462671222</v>
+      </c>
+      <c r="Q10">
+        <v>75.56752930124999</v>
+      </c>
+      <c r="R10">
+        <v>680.10776371125</v>
+      </c>
+      <c r="S10">
+        <v>0.07237288857349998</v>
+      </c>
+      <c r="T10">
+        <v>0.07237288857349997</v>
       </c>
     </row>
   </sheetData>
